--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/CALIFORNIA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/CALIFORNIA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2334"/>
+  <dimension ref="A1:D2328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C41">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C44">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C46">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C56">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C63">
@@ -1415,7 +1415,7 @@
         <v>23</v>
       </c>
       <c r="D79">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="80">
@@ -1577,7 +1577,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C92">
@@ -1590,7 +1590,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C93">
@@ -1629,7 +1629,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C96">
@@ -1681,7 +1681,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C100">
@@ -1837,7 +1837,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C112">
@@ -1850,7 +1850,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C113">
@@ -2466,7 +2466,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C160">
@@ -2609,7 +2609,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C171">
@@ -2648,7 +2648,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C174">
@@ -2973,7 +2973,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C199">
@@ -2986,7 +2986,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C200">
@@ -2999,7 +2999,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C201">
@@ -3103,7 +3103,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C209">
@@ -3394,7 +3394,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C231">
@@ -3594,7 +3594,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C246">
@@ -3620,7 +3620,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -3677,7 +3677,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C252">
@@ -3877,7 +3877,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C267">
@@ -4059,7 +4059,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C281">
@@ -4111,7 +4111,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C285">
@@ -4183,7 +4183,7 @@
         <v>23</v>
       </c>
       <c r="D290">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="291">
@@ -4202,7 +4202,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C292">
@@ -4215,7 +4215,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C293">
@@ -4228,7 +4228,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C294">
@@ -4241,7 +4241,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C295">
@@ -4371,12 +4371,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C305">
@@ -4415,7 +4415,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C308">
@@ -4428,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C309">
@@ -4441,7 +4441,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C310">
@@ -4532,7 +4532,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C317">
@@ -4636,7 +4636,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C325">
@@ -4714,7 +4714,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C331">
@@ -4805,7 +4805,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C338">
@@ -4909,7 +4909,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C346">
@@ -4922,7 +4922,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C347">
@@ -5111,7 +5111,7 @@
         <v>23</v>
       </c>
       <c r="D361">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="362">
@@ -5143,7 +5143,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C364">
@@ -5325,7 +5325,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C378">
@@ -5338,7 +5338,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C379">
@@ -5351,7 +5351,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C380">
@@ -5377,7 +5377,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C382">
@@ -5403,7 +5403,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C384">
@@ -5520,7 +5520,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C393">
@@ -5533,7 +5533,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C394">
@@ -5715,7 +5715,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C408">
@@ -5793,7 +5793,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C414">
@@ -5806,7 +5806,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C415">
@@ -5819,7 +5819,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C416">
@@ -5832,7 +5832,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C417">
@@ -6006,7 +6006,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C430">
@@ -6019,7 +6019,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C431">
@@ -6032,7 +6032,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C432">
@@ -6136,7 +6136,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C440">
@@ -6156,7 +6156,7 @@
         <v>225</v>
       </c>
       <c r="D441">
-        <v>0.0009177567577489263</v>
+        <v>0.0009177567577489264</v>
       </c>
     </row>
     <row r="442">
@@ -6188,7 +6188,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C444">
@@ -6292,7 +6292,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C452">
@@ -6344,7 +6344,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C456">
@@ -6370,7 +6370,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C458">
@@ -6396,7 +6396,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C460">
@@ -6422,7 +6422,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C462">
@@ -6448,7 +6448,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C464">
@@ -6513,7 +6513,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C469">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C475">
@@ -6635,7 +6635,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C478">
@@ -6648,7 +6648,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C479">
@@ -6700,7 +6700,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C483">
@@ -6713,7 +6713,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C484">
@@ -6739,7 +6739,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C486">
@@ -6752,7 +6752,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C487">
@@ -6791,7 +6791,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C490">
@@ -6804,7 +6804,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C491">
@@ -6817,7 +6817,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C492">
@@ -6830,7 +6830,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C493">
@@ -6895,7 +6895,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C498">
@@ -6908,7 +6908,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C499">
@@ -6960,7 +6960,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C503">
@@ -6973,7 +6973,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C504">
@@ -7051,7 +7051,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C510">
@@ -7064,7 +7064,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C511">
@@ -7090,7 +7090,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C513">
@@ -7103,7 +7103,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C514">
@@ -7129,7 +7129,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C516">
@@ -7168,7 +7168,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C519">
@@ -7337,7 +7337,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C532">
@@ -7363,7 +7363,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C534">
@@ -7389,7 +7389,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C536">
@@ -7415,7 +7415,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C538">
@@ -7467,7 +7467,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C542">
@@ -7480,7 +7480,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C543">
@@ -7641,7 +7641,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C555">
@@ -7732,7 +7732,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C562">
@@ -7745,7 +7745,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C563">
@@ -7823,7 +7823,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C569">
@@ -7901,7 +7901,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C575">
@@ -7953,7 +7953,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C579">
@@ -7992,7 +7992,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C582">
@@ -8083,7 +8083,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C589">
@@ -8096,7 +8096,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C590">
@@ -8109,7 +8109,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C591">
@@ -8122,7 +8122,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C592">
@@ -8135,7 +8135,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C593">
@@ -8161,7 +8161,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C595">
@@ -8174,7 +8174,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C596">
@@ -8187,7 +8187,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C597">
@@ -8226,7 +8226,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C600">
@@ -8304,7 +8304,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C606">
@@ -8317,7 +8317,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C607">
@@ -8369,7 +8369,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C611">
@@ -8395,7 +8395,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C613">
@@ -8408,7 +8408,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C614">
@@ -8447,7 +8447,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C617">
@@ -8564,7 +8564,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C626">
@@ -8577,7 +8577,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C627">
@@ -8590,7 +8590,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C628">
@@ -8642,7 +8642,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C632">
@@ -8655,7 +8655,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C633">
@@ -8725,7 +8725,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C638">
@@ -8738,7 +8738,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C639">
@@ -8803,7 +8803,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C644">
@@ -8842,7 +8842,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C647">
@@ -8868,7 +8868,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C649">
@@ -8946,7 +8946,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C655">
@@ -9037,7 +9037,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C662">
@@ -9050,7 +9050,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C663">
@@ -9167,7 +9167,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C672">
@@ -9258,7 +9258,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C679">
@@ -9271,7 +9271,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C680">
@@ -9284,7 +9284,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C681">
@@ -9336,7 +9336,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C685">
@@ -9414,7 +9414,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C691">
@@ -9427,7 +9427,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C692">
@@ -9447,7 +9447,7 @@
         <v>225</v>
       </c>
       <c r="D693">
-        <v>0.0009177567577489263</v>
+        <v>0.0009177567577489264</v>
       </c>
     </row>
     <row r="694">
@@ -9531,7 +9531,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C700">
@@ -9596,7 +9596,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C705">
@@ -9609,7 +9609,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C706">
@@ -9635,7 +9635,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C708">
@@ -9648,7 +9648,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C709">
@@ -9687,7 +9687,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C712">
@@ -9713,7 +9713,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C714">
@@ -9726,7 +9726,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C715">
@@ -9739,7 +9739,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C716">
@@ -9752,7 +9752,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C717">
@@ -9791,7 +9791,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C720">
@@ -9804,7 +9804,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C721">
@@ -9843,7 +9843,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C724">
@@ -9895,7 +9895,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C728">
@@ -9908,7 +9908,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C729">
@@ -9947,7 +9947,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C732">
@@ -9960,7 +9960,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C733">
@@ -10116,7 +10116,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C745">
@@ -10129,7 +10129,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C746">
@@ -10142,7 +10142,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C747">
@@ -10155,7 +10155,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C748">
@@ -10220,7 +10220,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C753">
@@ -10233,7 +10233,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C754">
@@ -10272,7 +10272,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C757">
@@ -10285,7 +10285,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C758">
@@ -10298,7 +10298,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C759">
@@ -10318,7 +10318,7 @@
         <v>238</v>
       </c>
       <c r="D760">
-        <v>0.0009707827037521975</v>
+        <v>0.0009707827037521976</v>
       </c>
     </row>
     <row r="761">
@@ -10427,7 +10427,7 @@
         <v>23</v>
       </c>
       <c r="D768">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="769">
@@ -10641,7 +10641,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C785">
@@ -10667,7 +10667,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C787">
@@ -11538,7 +11538,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C854">
@@ -11881,7 +11881,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C880">
@@ -11985,7 +11985,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C888">
@@ -12037,7 +12037,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C892">
@@ -12115,7 +12115,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C898">
@@ -12141,7 +12141,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C900">
@@ -12239,13 +12239,13 @@
         <v>243</v>
       </c>
       <c r="D907">
-        <v>0.0009911772983688403</v>
+        <v>0.0009911772983688405</v>
       </c>
     </row>
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C908">
@@ -12302,7 +12302,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C912">
@@ -12315,7 +12315,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C913">
@@ -12367,7 +12367,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C917">
@@ -12458,7 +12458,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C924">
@@ -12658,7 +12658,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C939">
@@ -12827,7 +12827,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C952">
@@ -12860,7 +12860,7 @@
         <v>234</v>
       </c>
       <c r="D954">
-        <v>0.0009544670280588833</v>
+        <v>0.0009544670280588832</v>
       </c>
     </row>
     <row r="955">
@@ -12892,7 +12892,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C957">
@@ -12988,7 +12988,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C964">
@@ -13092,7 +13092,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C972">
@@ -13138,13 +13138,13 @@
         <v>23</v>
       </c>
       <c r="D975">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C976">
@@ -13170,7 +13170,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C978">
@@ -13183,7 +13183,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C979">
@@ -13222,7 +13222,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C982">
@@ -13261,7 +13261,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C985">
@@ -13300,7 +13300,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C988">
@@ -13313,7 +13313,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C989">
@@ -13326,7 +13326,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C990">
@@ -13352,7 +13352,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C992">
@@ -13365,20 +13365,20 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C993">
         <v>23</v>
       </c>
       <c r="D993">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C994">
@@ -13404,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C996">
@@ -13417,7 +13417,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C997">
@@ -13430,7 +13430,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C998">
@@ -13443,7 +13443,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C999">
@@ -13456,7 +13456,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C1000">
@@ -13482,7 +13482,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C1002">
@@ -13508,7 +13508,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C1004">
@@ -13521,7 +13521,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C1005">
@@ -13703,7 +13703,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1019">
@@ -13729,7 +13729,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1021">
@@ -13742,7 +13742,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C1022">
@@ -13768,7 +13768,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C1024">
@@ -13794,7 +13794,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1026">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C1027">
@@ -13859,7 +13859,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1031">
@@ -13885,7 +13885,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1033">
@@ -13898,7 +13898,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1034">
@@ -13911,7 +13911,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1035">
@@ -13937,7 +13937,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1037">
@@ -13950,7 +13950,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C1038">
@@ -13976,7 +13976,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1040">
@@ -14041,7 +14041,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C1045">
@@ -14314,7 +14314,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1066">
@@ -14353,7 +14353,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C1069">
@@ -14373,7 +14373,7 @@
         <v>23</v>
       </c>
       <c r="D1070">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="1071">
@@ -14431,7 +14431,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C1075">
@@ -14626,7 +14626,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C1090">
@@ -14678,7 +14678,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C1094">
@@ -14769,7 +14769,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1101">
@@ -15094,7 +15094,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C1126">
@@ -15107,7 +15107,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1127">
@@ -15250,7 +15250,7 @@
     <row r="1138">
       <c r="B1138" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1138">
@@ -15432,7 +15432,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1152">
@@ -15445,7 +15445,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1153">
@@ -15458,7 +15458,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1154">
@@ -15686,7 +15686,7 @@
         <v>23</v>
       </c>
       <c r="D1171">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="1172">
@@ -15855,7 +15855,7 @@
         <v>23</v>
       </c>
       <c r="D1184">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="1185">
@@ -16069,7 +16069,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1201">
@@ -16303,7 +16303,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1219">
@@ -16316,7 +16316,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C1220">
@@ -16342,7 +16342,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1222">
@@ -16401,7 +16401,7 @@
         <v>23</v>
       </c>
       <c r="D1226">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="1227">
@@ -16680,7 +16680,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1248">
@@ -16784,7 +16784,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1256">
@@ -17135,7 +17135,7 @@
     <row r="1283">
       <c r="B1283" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1283">
@@ -17148,7 +17148,7 @@
     <row r="1284">
       <c r="B1284" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1284">
@@ -17161,7 +17161,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1285">
@@ -17395,7 +17395,7 @@
     <row r="1303">
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1303">
@@ -17655,7 +17655,7 @@
     <row r="1323">
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1323">
@@ -17720,7 +17720,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1328">
@@ -17798,7 +17798,7 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1334">
@@ -17811,7 +17811,7 @@
     <row r="1335">
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1335">
@@ -17837,7 +17837,7 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1337">
@@ -18019,7 +18019,7 @@
     <row r="1351">
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C1351">
@@ -18032,7 +18032,7 @@
     <row r="1352">
       <c r="B1352" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1352">
@@ -18136,7 +18136,7 @@
     <row r="1360">
       <c r="B1360" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1360">
@@ -18162,7 +18162,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Santa María la Asunción</t>
+          <t>Santa María La Asunción</t>
         </is>
       </c>
       <c r="C1362">
@@ -18682,7 +18682,7 @@
     <row r="1402">
       <c r="B1402" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1402">
@@ -18845,7 +18845,7 @@
         <v>233</v>
       </c>
       <c r="D1414">
-        <v>0.0009503881091355547</v>
+        <v>0.0009503881091355548</v>
       </c>
     </row>
     <row r="1415">
@@ -18884,7 +18884,7 @@
         <v>23</v>
       </c>
       <c r="D1417">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="1418">
@@ -19228,7 +19228,7 @@
     <row r="1444">
       <c r="B1444" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1444">
@@ -19482,7 +19482,7 @@
         <v>23</v>
       </c>
       <c r="D1463">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="1464">
@@ -19553,7 +19553,7 @@
     <row r="1469">
       <c r="B1469" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C1469">
@@ -19579,7 +19579,7 @@
     <row r="1471">
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1471">
@@ -19592,7 +19592,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1472">
@@ -19618,7 +19618,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1474">
@@ -19631,7 +19631,7 @@
     <row r="1475">
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1475">
@@ -19644,7 +19644,7 @@
     <row r="1476">
       <c r="B1476" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1476">
@@ -19657,7 +19657,7 @@
     <row r="1477">
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1477">
@@ -19683,7 +19683,7 @@
     <row r="1479">
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1479">
@@ -19696,7 +19696,7 @@
     <row r="1480">
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1480">
@@ -19709,7 +19709,7 @@
     <row r="1481">
       <c r="B1481" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1481">
@@ -19735,7 +19735,7 @@
     <row r="1483">
       <c r="B1483" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1483">
@@ -19748,7 +19748,7 @@
     <row r="1484">
       <c r="B1484" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1484">
@@ -19800,20 +19800,20 @@
     <row r="1488">
       <c r="B1488" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1488">
         <v>23</v>
       </c>
       <c r="D1488">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="1489">
       <c r="B1489" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1489">
@@ -19826,7 +19826,7 @@
     <row r="1490">
       <c r="B1490" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1490">
@@ -19839,7 +19839,7 @@
     <row r="1491">
       <c r="B1491" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1491">
@@ -19852,7 +19852,7 @@
     <row r="1492">
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1492">
@@ -19891,7 +19891,7 @@
     <row r="1495">
       <c r="B1495" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1495">
@@ -19904,20 +19904,20 @@
     <row r="1496">
       <c r="B1496" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1496">
         <v>23</v>
       </c>
       <c r="D1496">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="1497">
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1497">
@@ -19956,7 +19956,7 @@
     <row r="1500">
       <c r="B1500" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C1500">
@@ -19969,7 +19969,7 @@
     <row r="1501">
       <c r="B1501" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1501">
@@ -20008,7 +20008,7 @@
     <row r="1504">
       <c r="B1504" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1504">
@@ -20351,7 +20351,7 @@
     <row r="1530">
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1530">
@@ -20416,7 +20416,7 @@
     <row r="1535">
       <c r="B1535" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1535">
@@ -20475,7 +20475,7 @@
         <v>23</v>
       </c>
       <c r="D1539">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="1540">
@@ -20546,7 +20546,7 @@
     <row r="1545">
       <c r="B1545" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1545">
@@ -20689,7 +20689,7 @@
     <row r="1556">
       <c r="B1556" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1556">
@@ -20741,7 +20741,7 @@
     <row r="1560">
       <c r="B1560" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1560">
@@ -20754,7 +20754,7 @@
     <row r="1561">
       <c r="B1561" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1561">
@@ -20962,7 +20962,7 @@
     <row r="1577">
       <c r="B1577" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1577">
@@ -20975,7 +20975,7 @@
     <row r="1578">
       <c r="B1578" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1578">
@@ -21040,7 +21040,7 @@
     <row r="1583">
       <c r="B1583" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1583">
@@ -21066,7 +21066,7 @@
     <row r="1585">
       <c r="B1585" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1585">
@@ -21118,7 +21118,7 @@
     <row r="1589">
       <c r="B1589" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1589">
@@ -21261,7 +21261,7 @@
     <row r="1600">
       <c r="B1600" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1600">
@@ -21274,7 +21274,7 @@
     <row r="1601">
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1601">
@@ -21385,7 +21385,7 @@
         <v>23</v>
       </c>
       <c r="D1609">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="1610">
@@ -21443,7 +21443,7 @@
     <row r="1614">
       <c r="B1614" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1614">
@@ -21573,7 +21573,7 @@
     <row r="1624">
       <c r="B1624" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1624">
@@ -21794,7 +21794,7 @@
     <row r="1641">
       <c r="B1641" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1641">
@@ -21846,7 +21846,7 @@
     <row r="1645">
       <c r="B1645" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1645">
@@ -21859,7 +21859,7 @@
     <row r="1646">
       <c r="B1646" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1646">
@@ -21976,7 +21976,7 @@
     <row r="1655">
       <c r="B1655" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1655">
@@ -22080,7 +22080,7 @@
     <row r="1663">
       <c r="B1663" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1663">
@@ -22093,7 +22093,7 @@
     <row r="1664">
       <c r="B1664" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1664">
@@ -22106,7 +22106,7 @@
     <row r="1665">
       <c r="B1665" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1665">
@@ -22184,7 +22184,7 @@
     <row r="1671">
       <c r="B1671" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1671">
@@ -22210,7 +22210,7 @@
     <row r="1673">
       <c r="B1673" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1673">
@@ -22223,7 +22223,7 @@
     <row r="1674">
       <c r="B1674" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1674">
@@ -22236,7 +22236,7 @@
     <row r="1675">
       <c r="B1675" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1675">
@@ -22301,7 +22301,7 @@
     <row r="1680">
       <c r="B1680" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1680">
@@ -22457,7 +22457,7 @@
     <row r="1692">
       <c r="B1692" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1692">
@@ -22483,7 +22483,7 @@
     <row r="1694">
       <c r="B1694" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1694">
@@ -22535,7 +22535,7 @@
     <row r="1698">
       <c r="B1698" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1698">
@@ -22613,7 +22613,7 @@
     <row r="1704">
       <c r="B1704" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1704">
@@ -22717,7 +22717,7 @@
     <row r="1712">
       <c r="B1712" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1712">
@@ -22826,7 +22826,7 @@
       </c>
       <c r="B1720" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1720">
@@ -22852,7 +22852,7 @@
     <row r="1722">
       <c r="B1722" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1722">
@@ -22930,7 +22930,7 @@
     <row r="1728">
       <c r="B1728" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1728">
@@ -22943,7 +22943,7 @@
     <row r="1729">
       <c r="B1729" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1729">
@@ -22982,7 +22982,7 @@
     <row r="1732">
       <c r="B1732" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1732">
@@ -23021,7 +23021,7 @@
     <row r="1735">
       <c r="B1735" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1735">
@@ -23194,7 +23194,7 @@
         <v>23</v>
       </c>
       <c r="D1747">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="1748">
@@ -23213,7 +23213,7 @@
     <row r="1749">
       <c r="B1749" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1749">
@@ -23226,7 +23226,7 @@
     <row r="1750">
       <c r="B1750" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1750">
@@ -23304,7 +23304,7 @@
     <row r="1756">
       <c r="B1756" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1756">
@@ -23434,7 +23434,7 @@
     <row r="1766">
       <c r="B1766" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1766">
@@ -23512,7 +23512,7 @@
     <row r="1772">
       <c r="B1772" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1772">
@@ -23590,7 +23590,7 @@
     <row r="1778">
       <c r="B1778" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1778">
@@ -23616,7 +23616,7 @@
     <row r="1780">
       <c r="B1780" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1780">
@@ -23746,7 +23746,7 @@
     <row r="1790">
       <c r="B1790" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1790">
@@ -23759,7 +23759,7 @@
     <row r="1791">
       <c r="B1791" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1791">
@@ -23772,7 +23772,7 @@
     <row r="1792">
       <c r="B1792" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1792">
@@ -23785,7 +23785,7 @@
     <row r="1793">
       <c r="B1793" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1793">
@@ -23798,7 +23798,7 @@
     <row r="1794">
       <c r="B1794" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1794">
@@ -23811,7 +23811,7 @@
     <row r="1795">
       <c r="B1795" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1795">
@@ -24640,7 +24640,7 @@
     <row r="1858">
       <c r="B1858" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1858">
@@ -24770,7 +24770,7 @@
     <row r="1868">
       <c r="B1868" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1868">
@@ -24783,7 +24783,7 @@
     <row r="1869">
       <c r="B1869" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1869">
@@ -25022,7 +25022,7 @@
     <row r="1887">
       <c r="B1887" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1887">
@@ -25521,7 +25521,7 @@
     <row r="1925">
       <c r="B1925" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1925">
@@ -25630,7 +25630,7 @@
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1933">
@@ -25656,7 +25656,7 @@
     <row r="1935">
       <c r="B1935" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1935">
@@ -25669,7 +25669,7 @@
     <row r="1936">
       <c r="B1936" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1936">
@@ -25741,13 +25741,13 @@
         <v>233</v>
       </c>
       <c r="D1941">
-        <v>0.0009503881091355547</v>
+        <v>0.0009503881091355548</v>
       </c>
     </row>
     <row r="1942">
       <c r="B1942" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1942">
@@ -25845,13 +25845,13 @@
         <v>23</v>
       </c>
       <c r="D1949">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="1950">
       <c r="B1950" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1950">
@@ -25903,7 +25903,7 @@
     <row r="1954">
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1954">
@@ -25916,14 +25916,14 @@
     <row r="1955">
       <c r="B1955" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1955">
         <v>23</v>
       </c>
       <c r="D1955">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="1956">
@@ -25955,7 +25955,7 @@
     <row r="1958">
       <c r="B1958" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1958">
@@ -26020,7 +26020,7 @@
     <row r="1963">
       <c r="B1963" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1963">
@@ -26033,7 +26033,7 @@
     <row r="1964">
       <c r="B1964" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1964">
@@ -26137,7 +26137,7 @@
     <row r="1972">
       <c r="B1972" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1972">
@@ -26176,7 +26176,7 @@
     <row r="1975">
       <c r="B1975" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1975">
@@ -26332,7 +26332,7 @@
     <row r="1987">
       <c r="B1987" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1987">
@@ -26467,7 +26467,7 @@
     <row r="1997">
       <c r="B1997" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1997">
@@ -26519,7 +26519,7 @@
     <row r="2001">
       <c r="B2001" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C2001">
@@ -26662,7 +26662,7 @@
     <row r="2012">
       <c r="B2012" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C2012">
@@ -26688,7 +26688,7 @@
     <row r="2014">
       <c r="B2014" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C2014">
@@ -26740,7 +26740,7 @@
     <row r="2018">
       <c r="B2018" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C2018">
@@ -26766,7 +26766,7 @@
     <row r="2020">
       <c r="B2020" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C2020">
@@ -26857,7 +26857,7 @@
     <row r="2027">
       <c r="B2027" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C2027">
@@ -27039,7 +27039,7 @@
     <row r="2041">
       <c r="B2041" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C2041">
@@ -27052,7 +27052,7 @@
     <row r="2042">
       <c r="B2042" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C2042">
@@ -27273,7 +27273,7 @@
     <row r="2059">
       <c r="B2059" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C2059">
@@ -27286,7 +27286,7 @@
     <row r="2060">
       <c r="B2060" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C2060">
@@ -27299,7 +27299,7 @@
     <row r="2061">
       <c r="B2061" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C2061">
@@ -27351,7 +27351,7 @@
     <row r="2065">
       <c r="B2065" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C2065">
@@ -27364,7 +27364,7 @@
     <row r="2066">
       <c r="B2066" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C2066">
@@ -27377,7 +27377,7 @@
     <row r="2067">
       <c r="B2067" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C2067">
@@ -27390,7 +27390,7 @@
     <row r="2068">
       <c r="B2068" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C2068">
@@ -27546,7 +27546,7 @@
     <row r="2080">
       <c r="B2080" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C2080">
@@ -27585,7 +27585,7 @@
     <row r="2083">
       <c r="B2083" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C2083">
@@ -27624,7 +27624,7 @@
     <row r="2086">
       <c r="B2086" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C2086">
@@ -27637,14 +27637,14 @@
     <row r="2087">
       <c r="B2087" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C2087">
         <v>23</v>
       </c>
       <c r="D2087">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="2088">
@@ -27657,7 +27657,7 @@
         <v>242</v>
       </c>
       <c r="D2088">
-        <v>0.0009870983794455117</v>
+        <v>0.0009870983794455115</v>
       </c>
     </row>
     <row r="2089">
@@ -27683,13 +27683,13 @@
         <v>233</v>
       </c>
       <c r="D2090">
-        <v>0.0009503881091355547</v>
+        <v>0.0009503881091355548</v>
       </c>
     </row>
     <row r="2091">
       <c r="B2091" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C2091">
@@ -27728,7 +27728,7 @@
     <row r="2094">
       <c r="B2094" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C2094">
@@ -27780,7 +27780,7 @@
     <row r="2098">
       <c r="B2098" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C2098">
@@ -27806,7 +27806,7 @@
     <row r="2100">
       <c r="B2100" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C2100">
@@ -27949,7 +27949,7 @@
     <row r="2111">
       <c r="B2111" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C2111">
@@ -28001,7 +28001,7 @@
     <row r="2115">
       <c r="B2115" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C2115">
@@ -28014,7 +28014,7 @@
     <row r="2116">
       <c r="B2116" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C2116">
@@ -28066,7 +28066,7 @@
     <row r="2120">
       <c r="B2120" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C2120">
@@ -28183,7 +28183,7 @@
     <row r="2129">
       <c r="B2129" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C2129">
@@ -28235,7 +28235,7 @@
     <row r="2133">
       <c r="B2133" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C2133">
@@ -28339,7 +28339,7 @@
     <row r="2141">
       <c r="B2141" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C2141">
@@ -28781,7 +28781,7 @@
     <row r="2175">
       <c r="B2175" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C2175">
@@ -28937,7 +28937,7 @@
     <row r="2187">
       <c r="B2187" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C2187">
@@ -28950,7 +28950,7 @@
     <row r="2188">
       <c r="B2188" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C2188">
@@ -29241,7 +29241,7 @@
     <row r="2210">
       <c r="B2210" t="inlineStr">
         <is>
-          <t>Dzilam de Bravo</t>
+          <t>Dzilam De Bravo</t>
         </is>
       </c>
       <c r="C2210">
@@ -30117,7 +30117,7 @@
     <row r="2277">
       <c r="B2277" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C2277">
@@ -30143,7 +30143,7 @@
     <row r="2279">
       <c r="B2279" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C2279">
@@ -30169,7 +30169,7 @@
     <row r="2281">
       <c r="B2281" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C2281">
@@ -30299,7 +30299,7 @@
     <row r="2291">
       <c r="B2291" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C2291">
@@ -30377,7 +30377,7 @@
     <row r="2297">
       <c r="B2297" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C2297">
@@ -30442,7 +30442,7 @@
     <row r="2302">
       <c r="B2302" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C2302">
@@ -30455,7 +30455,7 @@
     <row r="2303">
       <c r="B2303" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C2303">
@@ -30468,14 +30468,14 @@
     <row r="2304">
       <c r="B2304" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C2304">
         <v>23</v>
       </c>
       <c r="D2304">
-        <v>9.381513523655691E-05</v>
+        <v>9.381513523655692E-05</v>
       </c>
     </row>
     <row r="2305">
@@ -30611,7 +30611,7 @@
     <row r="2315">
       <c r="B2315" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C2315">
@@ -30624,7 +30624,7 @@
     <row r="2316">
       <c r="B2316" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C2316">
@@ -30650,7 +30650,7 @@
     <row r="2318">
       <c r="B2318" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C2318">
@@ -30689,7 +30689,7 @@
     <row r="2321">
       <c r="B2321" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C2321">
@@ -30788,41 +30788,6 @@
       </c>
       <c r="D2328">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2330">
-      <c r="A2330" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="2331">
-      <c r="A2331" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2332">
-      <c r="A2332" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2333">
-      <c r="A2333" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2334">
-      <c r="A2334" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
